--- a/StkSum_new (1).xlsx
+++ b/StkSum_new (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sourabhagrawal/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233D83D6-AD45-F744-B658-1C57FA275C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887392A1-5F12-E248-B812-65B21ECF9141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="9920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="379">
   <si>
     <t>StkSummary</t>
   </si>
@@ -1159,6 +1159,9 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>0 pcs</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1679,7 @@
   <dimension ref="A1:E373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1870,8 +1873,8 @@
       <c r="B14" s="12">
         <v>0</v>
       </c>
-      <c r="C14" s="13">
-        <v>0.5</v>
+      <c r="C14" s="13" t="s">
+        <v>378</v>
       </c>
       <c r="D14" s="14">
         <v>2</v>
